--- a/ig/ch-allergyintolerance/ValueSet-CHAllergyIntoleranceValueSet.xlsx
+++ b/ig/ch-allergyintolerance/ValueSet-CHAllergyIntoleranceValueSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="4041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4045" uniqueCount="4041">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -90,7 +90,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -12072,7 +12072,7 @@
     <t>767234009</t>
   </si>
   <si>
-    <t>Gadolinium and gadolinium compound (substance)</t>
+    <t>Gadolinium and/or gadolinium compound (substance)</t>
   </si>
   <si>
     <t>419909004</t>
@@ -12257,10 +12257,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -12315,7 +12315,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/ig/ch-allergyintolerance/ValueSet-CHAllergyIntoleranceValueSet.xlsx
+++ b/ig/ch-allergyintolerance/ValueSet-CHAllergyIntoleranceValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
